--- a/PVPlayTool/Data/DarkSouls/DaS_Rings.xlsx
+++ b/PVPlayTool/Data/DarkSouls/DaS_Rings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menno\source\repos\PVPlayTool\PVPlayTool\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MennovdHeijden\source\repos\PVPlayTool\PVPlayTool\Data\DarkSouls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>EquipmentName</t>
   </si>
@@ -405,8 +405,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C42" tableType="xml" totalsRowShown="0" headerRowDxfId="0" connectionId="1">
-  <autoFilter ref="A1:C42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C44" tableType="xml" totalsRowShown="0" headerRowDxfId="0" connectionId="1">
+  <autoFilter ref="A1:C44"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="EquipmentName" name="EquipmentName">
       <xmlColumnPr mapId="1" xpath="/DaS_Rings/Ring/EquipmentName" xmlDataType="string"/>
@@ -685,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1161,17 @@
         <v>84</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
